--- a/diploma/data/ZHK_statistics.xlsx
+++ b/diploma/data/ZHK_statistics.xlsx
@@ -22,103 +22,103 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
-    <t xml:space="preserve">Название ЖК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество жилых помещений</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество студий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество однокомнатных квартир</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество двухкомнатных квартир</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество трехкомнатных квартир</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество 4 и 4+ комнатных квартир</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Среднее количество квартир на этаже</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество нежилых помещений</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество машино-мест в паркинге</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество гостевых машиномест на придомовой территории</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество гостевых машиномест вне придомовой территории</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обеспеченность машиноместами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество иных нежилых помещений</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жилая площадь, м2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Средняя общая площадь, м2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Минимальная высота потолков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Максимальная высота потолков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Минимальное количество этажей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Максимальное количество этажей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество лифтов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество подъездов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество лифтов на подъезд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество детских площадок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество спортивных площадок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наличие велосипедных дорожек</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наличие тротуаров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Площадки для мусорных контейнеров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наличие понижающих площадок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наличие пандуса</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество инвалидных подъемников</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ширина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Долгота</t>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">studio_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_room_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2_room_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_room_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4+_room_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg_flats_on_floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not_living_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">places_for_cars_in_parking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guest_places_for_cars_on_territory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guest_places_for_cars_near_territory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent_of_parking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amount_other_not_living</t>
+  </si>
+  <si>
+    <t xml:space="preserve">living_area_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg_living_area_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_ceiling_height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_ceiling_height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_floors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_floors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elevators_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entrances_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elevators_on_entracne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">children_playing_zone_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sports_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bicycle_is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sidewalk_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garbage_area_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step_down_platforms_is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_pandus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheelchair_lift_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude</t>
   </si>
   <si>
     <t xml:space="preserve">Prime Park</t>
@@ -138,7 +138,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -159,6 +159,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,7 +208,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,6 +219,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -251,8 +264,8 @@
   </sheetPr>
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF2" activeCellId="0" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -281,13 +294,13 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -350,13 +363,13 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
@@ -406,7 +419,7 @@
       <c r="L2" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="6" t="n">
         <f aca="false">(J2+K2+L2)/B2</f>
         <v>1.71757925072046</v>
       </c>
@@ -510,7 +523,7 @@
       <c r="L3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M3" s="4" t="n">
+      <c r="M3" s="6" t="n">
         <f aca="false">(J3+K3+L3)/B3</f>
         <v>0.327814569536424</v>
       </c>
@@ -573,7 +586,7 @@
       <c r="AF3" s="0" t="n">
         <v>55.645674</v>
       </c>
-      <c r="AG3" s="5" t="n">
+      <c r="AG3" s="7" t="n">
         <v>37.641503</v>
       </c>
     </row>
@@ -614,7 +627,7 @@
       <c r="L4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="M4" s="6" t="n">
         <f aca="false">(J4+K4+L4)/B4</f>
         <v>0.878914405010438</v>
       </c>
@@ -677,12 +690,12 @@
       <c r="AF4" s="0" t="n">
         <v>55.752009</v>
       </c>
-      <c r="AG4" s="5" t="n">
+      <c r="AG4" s="7" t="n">
         <v>37.452968</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I5" s="6"/>
+      <c r="I5" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/diploma/data/ZHK_statistics.xlsx
+++ b/diploma/data/ZHK_statistics.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ostrov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rustaveli14</t>
   </si>
 </sst>
 </file>
@@ -208,7 +211,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -219,14 +222,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -243,6 +238,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -264,11 +263,11 @@
   </sheetPr>
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF2" activeCellId="0" sqref="AF2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG11" activeCellId="0" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.85"/>
@@ -294,13 +293,13 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -363,13 +362,13 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
@@ -419,7 +418,7 @@
       <c r="L2" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="4" t="n">
         <f aca="false">(J2+K2+L2)/B2</f>
         <v>1.71757925072046</v>
       </c>
@@ -523,7 +522,7 @@
       <c r="L3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="4" t="n">
         <f aca="false">(J3+K3+L3)/B3</f>
         <v>0.327814569536424</v>
       </c>
@@ -586,7 +585,7 @@
       <c r="AF3" s="0" t="n">
         <v>55.645674</v>
       </c>
-      <c r="AG3" s="7" t="n">
+      <c r="AG3" s="5" t="n">
         <v>37.641503</v>
       </c>
     </row>
@@ -627,7 +626,7 @@
       <c r="L4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="4" t="n">
         <f aca="false">(J4+K4+L4)/B4</f>
         <v>0.878914405010438</v>
       </c>
@@ -690,12 +689,113 @@
       <c r="AF4" s="0" t="n">
         <v>55.752009</v>
       </c>
-      <c r="AG4" s="7" t="n">
+      <c r="AG4" s="5" t="n">
         <v>37.452968</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I5" s="8"/>
+      <c r="A5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1331</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>805</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>517</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <f aca="false">(J5+K5+L5)/B5</f>
+        <v>0.403456048084147</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <f aca="false">I5-J5</f>
+        <v>288</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>52653</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="W5" s="1" t="n">
+        <f aca="false">U5/V5</f>
+        <v>1</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>55.812115</v>
+      </c>
+      <c r="AG5" s="7" t="n">
+        <v>37.597872</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/diploma/data/ZHK_statistics.xlsx
+++ b/diploma/data/ZHK_statistics.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t xml:space="preserve">Rustaveli14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дом Соболева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOKOLNIKI</t>
   </si>
 </sst>
 </file>
@@ -261,13 +267,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG11" activeCellId="0" sqref="AG11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG7" activeCellId="0" sqref="AG7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.85"/>
@@ -793,8 +799,217 @@
       <c r="AF5" s="0" t="n">
         <v>55.812115</v>
       </c>
-      <c r="AG5" s="7" t="n">
+      <c r="AG5" s="5" t="n">
         <v>37.597872</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <f aca="false">(J6+K6+L6)/B6</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <f aca="false">I6-J6</f>
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <f aca="false">33 * 146</f>
+        <v>4818</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <f aca="false">U6/V6</f>
+        <v>3</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>55.764016</v>
+      </c>
+      <c r="AG6" s="7" t="n">
+        <v>37.652657</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>986</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>313</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <f aca="false">(J7+K7+L7)/B7</f>
+        <v>0.521625163826999</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <f aca="false">I7-J7</f>
+        <v>673</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>45984</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W7" s="1" t="n">
+        <f aca="false">U7/V7</f>
+        <v>5.33333333333333</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>55.782995</v>
+      </c>
+      <c r="AG7" s="7" t="n">
+        <v>37.690437</v>
       </c>
     </row>
   </sheetData>
